--- a/nominal_only_dataset.xlsx
+++ b/nominal_only_dataset.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4982,7 +4982,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8300,7 +8300,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10400,7 +10400,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -11744,7 +11744,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -11912,7 +11912,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -12710,7 +12710,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -12920,7 +12920,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -13214,7 +13214,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -13256,7 +13256,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -13466,7 +13466,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -13634,7 +13634,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -13928,7 +13928,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -14348,7 +14348,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -15188,7 +15188,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -15692,7 +15692,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -15860,7 +15860,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -16364,7 +16364,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -16406,7 +16406,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -16490,7 +16490,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -16532,7 +16532,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -16574,7 +16574,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -16868,7 +16868,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -16952,7 +16952,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -17204,7 +17204,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -17456,7 +17456,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -17540,7 +17540,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -17666,7 +17666,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -17834,7 +17834,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -17876,7 +17876,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -17980,7 +17980,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>unskilled resident</t>
+          <t>'unskilled resident'</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -18044,7 +18044,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -18128,7 +18128,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -18170,7 +18170,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -18212,7 +18212,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -18968,7 +18968,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -19361,7 +19361,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -19514,7 +19514,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -19640,7 +19640,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -19724,7 +19724,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -19850,7 +19850,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -20018,7 +20018,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -20033,7 +20033,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -20186,7 +20186,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -20312,7 +20312,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -20816,7 +20816,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -20858,7 +20858,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -20957,7 +20957,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -21026,7 +21026,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -21446,7 +21446,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -21656,7 +21656,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -21698,7 +21698,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -21740,7 +21740,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -21866,7 +21866,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -21908,7 +21908,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -21950,7 +21950,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -22454,7 +22454,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -22706,7 +22706,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -22790,7 +22790,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -23084,7 +23084,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -23210,7 +23210,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -23336,7 +23336,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
@@ -23378,7 +23378,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -23420,7 +23420,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -23546,7 +23546,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -23714,7 +23714,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -23882,7 +23882,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -24008,7 +24008,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -24134,7 +24134,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -24260,7 +24260,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -24512,7 +24512,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -24764,7 +24764,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -24848,7 +24848,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -24890,7 +24890,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -25016,7 +25016,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -25184,7 +25184,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -25394,7 +25394,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -25478,7 +25478,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -25520,7 +25520,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -25604,7 +25604,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
@@ -26066,7 +26066,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -26108,7 +26108,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -26150,7 +26150,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -26234,7 +26234,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -26402,7 +26402,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -26486,7 +26486,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -26570,7 +26570,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -26822,7 +26822,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -26921,7 +26921,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -27116,7 +27116,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -27662,7 +27662,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -27704,7 +27704,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -27872,7 +27872,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -28040,7 +28040,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -28250,7 +28250,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -28544,7 +28544,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -28712,7 +28712,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -28754,7 +28754,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -28979,7 +28979,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -29258,7 +29258,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -29342,7 +29342,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -29426,7 +29426,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -29594,7 +29594,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -29678,7 +29678,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -29762,7 +29762,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -29930,7 +29930,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -30140,7 +30140,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -30392,7 +30392,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -30476,7 +30476,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -30518,7 +30518,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -30533,7 +30533,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -30686,7 +30686,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -30869,7 +30869,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
@@ -30896,7 +30896,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -30938,7 +30938,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -31210,7 +31210,7 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>unskilled resident</t>
+          <t>'unskilled resident'</t>
         </is>
       </c>
       <c r="H733" t="inlineStr">
@@ -31274,7 +31274,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -31316,7 +31316,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -31358,7 +31358,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -31400,7 +31400,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -31442,7 +31442,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -31568,7 +31568,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -31820,7 +31820,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -31862,7 +31862,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -31904,7 +31904,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -31946,7 +31946,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -32030,7 +32030,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -32198,7 +32198,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -32240,7 +32240,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G758" t="inlineStr">
@@ -32324,7 +32324,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -32366,7 +32366,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -32534,7 +32534,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -32576,7 +32576,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -32702,7 +32702,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
@@ -32828,7 +32828,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -32996,7 +32996,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -33038,7 +33038,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -33164,7 +33164,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -33221,7 +33221,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -33290,7 +33290,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -33374,7 +33374,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
@@ -33416,7 +33416,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -33542,7 +33542,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -33710,7 +33710,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -33920,7 +33920,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -34004,7 +34004,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -34046,7 +34046,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -34256,7 +34256,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -34298,7 +34298,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -34397,7 +34397,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G809" t="inlineStr">
@@ -34424,7 +34424,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -34466,7 +34466,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
@@ -34592,7 +34592,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
@@ -34634,7 +34634,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
@@ -34676,7 +34676,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -34718,7 +34718,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
@@ -34760,7 +34760,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
@@ -34775,7 +34775,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G818" t="inlineStr">
@@ -34928,7 +34928,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -35054,7 +35054,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -35138,7 +35138,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -35180,7 +35180,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -35264,7 +35264,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -35390,7 +35390,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
@@ -35558,7 +35558,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -35684,7 +35684,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
@@ -35699,7 +35699,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
@@ -36020,7 +36020,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -36062,7 +36062,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -36188,7 +36188,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -36230,7 +36230,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
@@ -36314,7 +36314,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -36356,7 +36356,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
@@ -36398,7 +36398,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -36524,7 +36524,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -36566,7 +36566,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -36608,7 +36608,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
@@ -37070,7 +37070,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -37154,7 +37154,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -37238,7 +37238,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -37364,7 +37364,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
@@ -37448,7 +37448,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
@@ -37490,7 +37490,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
@@ -37532,7 +37532,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -37784,7 +37784,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
@@ -37826,7 +37826,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
@@ -37994,7 +37994,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
@@ -38078,7 +38078,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
@@ -38288,7 +38288,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
@@ -38330,7 +38330,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
@@ -38372,7 +38372,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
@@ -38540,7 +38540,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
@@ -38624,7 +38624,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
@@ -38666,7 +38666,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
@@ -38960,7 +38960,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
@@ -39002,7 +39002,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D919" t="inlineStr">
@@ -39017,7 +39017,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -39254,7 +39254,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
@@ -39338,7 +39338,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
@@ -39422,7 +39422,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D929" t="inlineStr">
@@ -39506,7 +39506,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D931" t="inlineStr">
@@ -39632,7 +39632,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D934" t="inlineStr">
@@ -39926,7 +39926,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D941" t="inlineStr">
@@ -39968,7 +39968,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D942" t="inlineStr">
@@ -40010,7 +40010,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D943" t="inlineStr">
@@ -40094,7 +40094,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D945" t="inlineStr">
@@ -40178,7 +40178,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D947" t="inlineStr">
@@ -40262,7 +40262,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D949" t="inlineStr">
@@ -40472,7 +40472,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D954" t="inlineStr">
@@ -40556,7 +40556,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D956" t="inlineStr">
@@ -40724,7 +40724,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
@@ -40850,7 +40850,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D963" t="inlineStr">
@@ -40892,7 +40892,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D964" t="inlineStr">
@@ -41186,7 +41186,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D971" t="inlineStr">
@@ -41270,7 +41270,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D973" t="inlineStr">
@@ -41312,7 +41312,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D974" t="inlineStr">
@@ -41495,7 +41495,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -41564,7 +41564,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D980" t="inlineStr">
@@ -41606,7 +41606,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D981" t="inlineStr">
@@ -41732,7 +41732,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
@@ -41774,7 +41774,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D985" t="inlineStr">
@@ -41957,7 +41957,7 @@
       </c>
       <c r="F989" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="G989" t="inlineStr">
@@ -41984,7 +41984,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D990" t="inlineStr">
@@ -42236,7 +42236,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D996" t="inlineStr">
@@ -42320,7 +42320,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D998" t="inlineStr">
@@ -42446,7 +42446,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr">
